--- a/Code/Results/Cases/Case_3_194/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_194/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9436753387590215</v>
+        <v>0.6978504067861024</v>
       </c>
       <c r="C2">
-        <v>0.1344902210810552</v>
+        <v>0.1930930025687729</v>
       </c>
       <c r="D2">
-        <v>0.07758775833001152</v>
+        <v>0.1341802411594273</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.081187068195447</v>
+        <v>2.258608400063444</v>
       </c>
       <c r="G2">
-        <v>0.0008404132439908333</v>
+        <v>0.002533610793596354</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1065595517445335</v>
+        <v>0.2647243273998949</v>
       </c>
       <c r="K2">
-        <v>0.7640192551061773</v>
+        <v>0.3129193531068495</v>
       </c>
       <c r="L2">
-        <v>0.1616585808349029</v>
+        <v>0.2973886175894407</v>
       </c>
       <c r="M2">
-        <v>0.2062423558161335</v>
+        <v>0.2204887186071431</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.864683016176315</v>
+        <v>5.997299208462749</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8231974102498896</v>
+        <v>0.6661859499192815</v>
       </c>
       <c r="C3">
-        <v>0.1340380350300094</v>
+        <v>0.1928607087091514</v>
       </c>
       <c r="D3">
-        <v>0.07070523132095019</v>
+        <v>0.1328966867213168</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.070499867121598</v>
+        <v>2.268062712592823</v>
       </c>
       <c r="G3">
-        <v>0.000844364634851433</v>
+        <v>0.002536200519294159</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1087991144006786</v>
+        <v>0.2662980842350073</v>
       </c>
       <c r="K3">
-        <v>0.6645058876245145</v>
+        <v>0.2839817536946043</v>
       </c>
       <c r="L3">
-        <v>0.1492500614476029</v>
+        <v>0.2954499497816911</v>
       </c>
       <c r="M3">
-        <v>0.1821605829417834</v>
+        <v>0.2147544219842494</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.861770824937167</v>
+        <v>6.02915790192975</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7495696972109158</v>
+        <v>0.6470008946372729</v>
       </c>
       <c r="C4">
-        <v>0.1337870428327115</v>
+        <v>0.1927276880475262</v>
       </c>
       <c r="D4">
-        <v>0.06653021679137083</v>
+        <v>0.1321536003543429</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.065479003474238</v>
+        <v>2.27476649796732</v>
       </c>
       <c r="G4">
-        <v>0.0008468737850244965</v>
+        <v>0.002537876629307612</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1102704304963176</v>
+        <v>0.2673294873770597</v>
       </c>
       <c r="K4">
-        <v>0.6034940990703035</v>
+        <v>0.2662698578183011</v>
       </c>
       <c r="L4">
-        <v>0.1417637939988126</v>
+        <v>0.2943630801324915</v>
       </c>
       <c r="M4">
-        <v>0.1674851244346449</v>
+        <v>0.2113186052211873</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.864288944386288</v>
+        <v>6.051137240658676</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7196409282605316</v>
+        <v>0.6392480901513125</v>
       </c>
       <c r="C5">
-        <v>0.1336913517004454</v>
+        <v>0.1926759165077065</v>
       </c>
       <c r="D5">
-        <v>0.06484097700118951</v>
+        <v>0.1318621667292135</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.063807442841927</v>
+        <v>2.277724616218279</v>
       </c>
       <c r="G5">
-        <v>0.0008479174848578145</v>
+        <v>0.002538581348532924</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1108938584255412</v>
+        <v>0.2677661908497182</v>
       </c>
       <c r="K5">
-        <v>0.5786450330889323</v>
+        <v>0.2590666248657243</v>
       </c>
       <c r="L5">
-        <v>0.138744728776139</v>
+        <v>0.2939462945423585</v>
       </c>
       <c r="M5">
-        <v>0.1615300384570375</v>
+        <v>0.2099400122595156</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.866361838465167</v>
+        <v>6.060702532090488</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7146754795938932</v>
+        <v>0.63796470289833</v>
       </c>
       <c r="C6">
-        <v>0.1336758572192061</v>
+        <v>0.192667467550077</v>
       </c>
       <c r="D6">
-        <v>0.06456119229930835</v>
+        <v>0.1318144634696381</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.063552129446101</v>
+        <v>2.278229483404147</v>
       </c>
       <c r="G6">
-        <v>0.0008480920803812032</v>
+        <v>0.002538699678624444</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1109988092849701</v>
+        <v>0.2678396963072309</v>
       </c>
       <c r="K6">
-        <v>0.5745194448769979</v>
+        <v>0.257871423076935</v>
       </c>
       <c r="L6">
-        <v>0.1382452788709898</v>
+        <v>0.2938786683478227</v>
       </c>
       <c r="M6">
-        <v>0.1605426548592241</v>
+        <v>0.2097124024519381</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.866768238668897</v>
+        <v>6.062327610432845</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.749165778508825</v>
+        <v>0.646896072535128</v>
       </c>
       <c r="C7">
-        <v>0.1337857257652466</v>
+        <v>0.1927269799519742</v>
       </c>
       <c r="D7">
-        <v>0.06650738694668945</v>
+        <v>0.132149623821654</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.065454960747942</v>
+        <v>2.274805475675976</v>
       </c>
       <c r="G7">
-        <v>0.0008468877745174733</v>
+        <v>0.002537886045514188</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1102787421134597</v>
+        <v>0.2673353104819682</v>
       </c>
       <c r="K7">
-        <v>0.6031589316101389</v>
+        <v>0.2661726531574118</v>
       </c>
       <c r="L7">
-        <v>0.1417229518619649</v>
+        <v>0.2943573533107866</v>
       </c>
       <c r="M7">
-        <v>0.1674047130190566</v>
+        <v>0.2112999256728223</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.864312708382556</v>
+        <v>6.051263776923093</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9020552677861531</v>
+        <v>0.6868795143652164</v>
       </c>
       <c r="C8">
-        <v>0.1343287052413515</v>
+        <v>0.1930109247348923</v>
       </c>
       <c r="D8">
-        <v>0.07520367778094084</v>
+        <v>0.1337283622343435</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.077174211978516</v>
+        <v>2.261681855790592</v>
       </c>
       <c r="G8">
-        <v>0.0008417586670072492</v>
+        <v>0.002534485918384646</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1073115745548296</v>
+        <v>0.2652534607612029</v>
       </c>
       <c r="K8">
-        <v>0.7296828905110004</v>
+        <v>0.3029303257124525</v>
       </c>
       <c r="L8">
-        <v>0.1573515472531781</v>
+        <v>0.2966987473922629</v>
       </c>
       <c r="M8">
-        <v>0.1979143447260725</v>
+        <v>0.218493959716902</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.862762865896116</v>
+        <v>6.00778254058153</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.205203736791191</v>
+        <v>0.7673035586720687</v>
       </c>
       <c r="C9">
-        <v>0.1356106180768393</v>
+        <v>0.1936431910138907</v>
       </c>
       <c r="D9">
-        <v>0.09269426564605254</v>
+        <v>0.1371791485749014</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.11300593988409</v>
+        <v>2.243067553785217</v>
       </c>
       <c r="G9">
-        <v>0.0008323429739297354</v>
+        <v>0.002528497812785841</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1022723804978689</v>
+        <v>0.2616864059621502</v>
       </c>
       <c r="K9">
-        <v>0.9789448978037285</v>
+        <v>0.3754395301587294</v>
       </c>
       <c r="L9">
-        <v>0.1891338798432756</v>
+        <v>0.3021072933550855</v>
       </c>
       <c r="M9">
-        <v>0.2587498745090038</v>
+        <v>0.2332711337137887</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.895611360770204</v>
+        <v>5.941680815107475</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.430843973917206</v>
+        <v>0.8275962896017859</v>
       </c>
       <c r="C10">
-        <v>0.1366936434668631</v>
+        <v>0.1941527373338445</v>
       </c>
       <c r="D10">
-        <v>0.1058615681402699</v>
+        <v>0.1399280286814388</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.148083330443086</v>
+        <v>2.233720157346781</v>
       </c>
       <c r="G10">
-        <v>0.0008257934916470647</v>
+        <v>0.0025245085484639</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.09906853164219243</v>
+        <v>0.2593782885805815</v>
       </c>
       <c r="K10">
-        <v>1.16344050249549</v>
+        <v>0.4289565102831716</v>
       </c>
       <c r="L10">
-        <v>0.2132997701563824</v>
+        <v>0.3065744053036212</v>
       </c>
       <c r="M10">
-        <v>0.3042502664976396</v>
+        <v>0.2445304533722492</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.944158938762968</v>
+        <v>5.904774293181305</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.534338780415567</v>
+        <v>0.8552819982160997</v>
       </c>
       <c r="C11">
-        <v>0.1372192047763647</v>
+        <v>0.1943941200324346</v>
       </c>
       <c r="D11">
-        <v>0.1119325393227939</v>
+        <v>0.1412243840161977</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.166159031209958</v>
+        <v>2.230405114013891</v>
       </c>
       <c r="G11">
-        <v>0.0008228884478686951</v>
+        <v>0.002522781934863844</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09772475981263895</v>
+        <v>0.2583957981860969</v>
       </c>
       <c r="K11">
-        <v>1.247827208901043</v>
+        <v>0.4533527750027417</v>
       </c>
       <c r="L11">
-        <v>0.2244999427777827</v>
+        <v>0.3087128176907754</v>
       </c>
       <c r="M11">
-        <v>0.3251699039633493</v>
+        <v>0.2497388846022659</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.972148002589165</v>
+        <v>5.890511038369226</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.573670314740269</v>
+        <v>0.8658024516745684</v>
       </c>
       <c r="C12">
-        <v>0.1374231511298873</v>
+        <v>0.1944868863180602</v>
       </c>
       <c r="D12">
-        <v>0.1142441610639082</v>
+        <v>0.1417218224920873</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.173327931063113</v>
+        <v>2.229284320853182</v>
       </c>
       <c r="G12">
-        <v>0.0008217986009871488</v>
+        <v>0.002522140717982325</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.09723275283360522</v>
+        <v>0.2580334328288458</v>
       </c>
       <c r="K12">
-        <v>1.279862126733292</v>
+        <v>0.4625979773294944</v>
       </c>
       <c r="L12">
-        <v>0.2287734994881276</v>
+        <v>0.3095377722176949</v>
       </c>
       <c r="M12">
-        <v>0.3331274388347865</v>
+        <v>0.2517234990440897</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.983649720412899</v>
+        <v>5.885472669250333</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.565193023497869</v>
+        <v>0.8635350719565906</v>
       </c>
       <c r="C13">
-        <v>0.1373790051147168</v>
+        <v>0.1944668472534445</v>
       </c>
       <c r="D13">
-        <v>0.1137457312695034</v>
+        <v>0.1416144004424922</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.171769246913129</v>
+        <v>2.229519723384129</v>
       </c>
       <c r="G13">
-        <v>0.0008220328716384038</v>
+        <v>0.00252227825547783</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0973379575377713</v>
+        <v>0.2581110444063803</v>
       </c>
       <c r="K13">
-        <v>1.27295907175062</v>
+        <v>0.4606065599146802</v>
       </c>
       <c r="L13">
-        <v>0.2278516341303742</v>
+        <v>0.3093594297983486</v>
       </c>
       <c r="M13">
-        <v>0.3314119874581962</v>
+        <v>0.251295532323816</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.981131567382192</v>
+        <v>5.886541641857008</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.53757168945458</v>
+        <v>0.8561467949773487</v>
       </c>
       <c r="C14">
-        <v>0.137235883604383</v>
+        <v>0.1944017248222352</v>
       </c>
       <c r="D14">
-        <v>0.1121224577182574</v>
+        <v>0.1412651779152156</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.166742211460999</v>
+        <v>2.230310210510112</v>
       </c>
       <c r="G14">
-        <v>0.000822798583201316</v>
+        <v>0.002522728929080321</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.09768394139257097</v>
+        <v>0.2583657922433282</v>
       </c>
       <c r="K14">
-        <v>1.250461066387174</v>
+        <v>0.4541132485234982</v>
       </c>
       <c r="L14">
-        <v>0.2248508685195105</v>
+        <v>0.3087803834650771</v>
       </c>
       <c r="M14">
-        <v>0.3258238358804419</v>
+        <v>0.2499019144575385</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.973075839447375</v>
+        <v>5.890089259498694</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.52067165436975</v>
+        <v>0.8516259927897352</v>
       </c>
       <c r="C15">
-        <v>0.1371488654830415</v>
+        <v>0.1943620119989475</v>
       </c>
       <c r="D15">
-        <v>0.1111298379609167</v>
+        <v>0.141052118543314</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.163705801291087</v>
+        <v>2.230811921577555</v>
       </c>
       <c r="G15">
-        <v>0.0008232689217590406</v>
+        <v>0.002523006620862532</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.09789807641985604</v>
+        <v>0.2585230929472999</v>
       </c>
       <c r="K15">
-        <v>1.236691161035736</v>
+        <v>0.4501367876376889</v>
       </c>
       <c r="L15">
-        <v>0.2230170966763581</v>
+        <v>0.3084276752764055</v>
       </c>
       <c r="M15">
-        <v>0.3224057043019428</v>
+        <v>0.2490498800780756</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.968260714296463</v>
+        <v>5.892309515887064</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.424098963805051</v>
+        <v>0.8257921036111782</v>
       </c>
       <c r="C16">
-        <v>0.1366599751351316</v>
+        <v>0.1941371537221315</v>
       </c>
       <c r="D16">
-        <v>0.1054665330230478</v>
+        <v>0.1398442268159243</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.146946300409056</v>
+        <v>2.233955642211328</v>
       </c>
       <c r="G16">
-        <v>0.0008259848003322346</v>
+        <v>0.002524623154993526</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.09915868004975792</v>
+        <v>0.2594438527302927</v>
       </c>
       <c r="K16">
-        <v>1.157935998454491</v>
+        <v>0.427363144228849</v>
       </c>
       <c r="L16">
-        <v>0.2125721899969903</v>
+        <v>0.3064367853647525</v>
       </c>
       <c r="M16">
-        <v>0.3028878990759978</v>
+        <v>0.244191798505085</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.942453116688455</v>
+        <v>5.905757221806596</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.365084894794933</v>
+        <v>0.8100095224981771</v>
       </c>
       <c r="C17">
-        <v>0.1363686155813468</v>
+        <v>0.1940016526187378</v>
       </c>
       <c r="D17">
-        <v>0.102013751182497</v>
+        <v>0.1391149315210072</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.137220921846492</v>
+        <v>2.236124081129688</v>
       </c>
       <c r="G17">
-        <v>0.0008276696268476997</v>
+        <v>0.002525637375330617</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.09996148269991778</v>
+        <v>0.2600259777912193</v>
       </c>
       <c r="K17">
-        <v>1.109749073330335</v>
+        <v>0.4134049997290674</v>
       </c>
       <c r="L17">
-        <v>0.2062193388075571</v>
+        <v>0.305242592593217</v>
       </c>
       <c r="M17">
-        <v>0.2909737240863777</v>
+        <v>0.2412335765395852</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.928170407305288</v>
+        <v>5.914653579016374</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.331220405686992</v>
+        <v>0.8009561455891117</v>
       </c>
       <c r="C18">
-        <v>0.1362041158625686</v>
+        <v>0.1939246194989934</v>
       </c>
       <c r="D18">
-        <v>0.1000353711463973</v>
+        <v>0.1386997818051299</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.131825341269106</v>
+        <v>2.237459530301663</v>
       </c>
       <c r="G18">
-        <v>0.0008286457217428778</v>
+        <v>0.002526229026149446</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1004339011204003</v>
+        <v>0.2603671539073495</v>
       </c>
       <c r="K18">
-        <v>1.08207553846006</v>
+        <v>0.4053814849398236</v>
       </c>
       <c r="L18">
-        <v>0.202584668074465</v>
+        <v>0.3045657360971177</v>
       </c>
       <c r="M18">
-        <v>0.2841415842547264</v>
+        <v>0.2395402369389146</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.920507698209178</v>
+        <v>5.920008282394207</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.319767482816701</v>
+        <v>0.7978950293199603</v>
       </c>
       <c r="C19">
-        <v>0.1361489427698572</v>
+        <v>0.1938986931669717</v>
       </c>
       <c r="D19">
-        <v>0.09936679577731411</v>
+        <v>0.1385599633242833</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.13003196333699</v>
+        <v>2.237926849010393</v>
       </c>
       <c r="G19">
-        <v>0.0008289774312071184</v>
+        <v>0.002526430775939874</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1005956712252107</v>
+        <v>0.2604837621048333</v>
       </c>
       <c r="K19">
-        <v>1.072712625299147</v>
+        <v>0.4026657068977499</v>
       </c>
       <c r="L19">
-        <v>0.2013572751645185</v>
+        <v>0.3043382867234499</v>
       </c>
       <c r="M19">
-        <v>0.2818317590092931</v>
+        <v>0.2389683057002614</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.918006519961665</v>
+        <v>5.92186213896494</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.371358756420051</v>
+        <v>0.8116870902244955</v>
       </c>
       <c r="C20">
-        <v>0.1363993108866737</v>
+        <v>0.1940159835672688</v>
       </c>
       <c r="D20">
-        <v>0.1023805152306636</v>
+        <v>0.1391921194125558</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.138235556132159</v>
+        <v>2.235884118188892</v>
       </c>
       <c r="G20">
-        <v>0.00082748955015526</v>
+        <v>0.002525528551474577</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.09987491538937121</v>
+        <v>0.2599633522122922</v>
       </c>
       <c r="K20">
-        <v>1.114874179919212</v>
+        <v>0.4148903705576856</v>
       </c>
       <c r="L20">
-        <v>0.2068935932091449</v>
+        <v>0.305368681027943</v>
       </c>
       <c r="M20">
-        <v>0.2922398511595574</v>
+        <v>0.24154764173052</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.929633284361785</v>
+        <v>5.913681942688015</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.545680786633682</v>
+        <v>0.8583159263011169</v>
       </c>
       <c r="C21">
-        <v>0.1372777864513424</v>
+        <v>0.1944208161016618</v>
       </c>
       <c r="D21">
-        <v>0.1125989000391598</v>
+        <v>0.1413675761069015</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.168209818954281</v>
+        <v>2.230074375581893</v>
       </c>
       <c r="G21">
-        <v>0.0008225734013152591</v>
+        <v>0.002522596213477824</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.09758185605443259</v>
+        <v>0.2582907040215119</v>
       </c>
       <c r="K21">
-        <v>1.257067005347864</v>
+        <v>0.4560203089867798</v>
       </c>
       <c r="L21">
-        <v>0.2257313686290274</v>
+        <v>0.3089500521255815</v>
       </c>
       <c r="M21">
-        <v>0.3274642094901452</v>
+        <v>0.2503109212934973</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.975417050980269</v>
+        <v>5.889037394487644</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.660437413052847</v>
+        <v>0.8890028744148708</v>
       </c>
       <c r="C22">
-        <v>0.1378807489923801</v>
+        <v>0.1946933155214978</v>
       </c>
       <c r="D22">
-        <v>0.1193516157068473</v>
+        <v>0.1428274367735014</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.189698345532022</v>
+        <v>2.227061484965176</v>
       </c>
       <c r="G22">
-        <v>0.000819419808556987</v>
+        <v>0.002520753259559996</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.09618168376443137</v>
+        <v>0.2572539584258386</v>
       </c>
       <c r="K22">
-        <v>1.350468658876906</v>
+        <v>0.4829408996277209</v>
       </c>
       <c r="L22">
-        <v>0.2382324820923287</v>
+        <v>0.3113791430375841</v>
       </c>
       <c r="M22">
-        <v>0.3506955938940806</v>
+        <v>0.2561098259542689</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.010629717852169</v>
+        <v>5.875045351783911</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.59910764409733</v>
+        <v>0.8726054636578056</v>
       </c>
       <c r="C23">
-        <v>0.1375562283093643</v>
+        <v>0.1945471591070174</v>
       </c>
       <c r="D23">
-        <v>0.1157404023363284</v>
+        <v>0.1420448176999969</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.178049048424668</v>
+        <v>2.228597846732001</v>
       </c>
       <c r="G23">
-        <v>0.0008210976654951392</v>
+        <v>0.002521730172470172</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.09691979627689662</v>
+        <v>0.2578021331292959</v>
       </c>
       <c r="K23">
-        <v>1.300570657068221</v>
+        <v>0.468569392089762</v>
       </c>
       <c r="L23">
-        <v>0.2315421777801419</v>
+        <v>0.3100746311653211</v>
       </c>
       <c r="M23">
-        <v>0.3382759680941518</v>
+        <v>0.2530083384575335</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.99133321531707</v>
+        <v>5.882319807377968</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.368522147188116</v>
+        <v>0.8109285987633541</v>
       </c>
       <c r="C24">
-        <v>0.1363854241884255</v>
+        <v>0.1940095018386288</v>
       </c>
       <c r="D24">
-        <v>0.1022146805040336</v>
+        <v>0.1391572098925593</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.13777623195287</v>
+        <v>2.235992328857833</v>
       </c>
       <c r="G24">
-        <v>0.00082757093954288</v>
+        <v>0.002525577724123328</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.09991401863038973</v>
+        <v>0.2599916449732724</v>
       </c>
       <c r="K24">
-        <v>1.112557027514157</v>
+        <v>0.4142188306065862</v>
       </c>
       <c r="L24">
-        <v>0.2065887079513402</v>
+        <v>0.3053116462221794</v>
       </c>
       <c r="M24">
-        <v>0.2916673809612078</v>
+        <v>0.2414056298541709</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.928970212868592</v>
+        <v>5.914120471635641</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.122749340883587</v>
+        <v>0.7453333384009397</v>
       </c>
       <c r="C25">
-        <v>0.1352397197688759</v>
+        <v>0.1934641704523727</v>
       </c>
       <c r="D25">
-        <v>0.08791077238377909</v>
+        <v>0.1362079124537701</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.101845459846473</v>
+        <v>2.247342166294665</v>
       </c>
       <c r="G25">
-        <v>0.0008348237359268898</v>
+        <v>0.002530045427112299</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1035498560573593</v>
+        <v>0.2625963760524979</v>
       </c>
       <c r="K25">
-        <v>0.911324217984486</v>
+        <v>0.3557797766669069</v>
       </c>
       <c r="L25">
-        <v>0.1804021361176353</v>
+        <v>0.300557147069128</v>
       </c>
       <c r="M25">
-        <v>0.2421655390013022</v>
+        <v>0.2292024152742975</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.882630828951449</v>
+        <v>5.957513942933616</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_194/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_194/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6978504067861024</v>
+        <v>0.9436753387589647</v>
       </c>
       <c r="C2">
-        <v>0.1930930025687729</v>
+        <v>0.1344902210807177</v>
       </c>
       <c r="D2">
-        <v>0.1341802411594273</v>
+        <v>0.07758775833013232</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.258608400063444</v>
+        <v>1.081187068195455</v>
       </c>
       <c r="G2">
-        <v>0.002533610793596354</v>
+        <v>0.0008404132439308813</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2647243273998949</v>
+        <v>0.1065595517444038</v>
       </c>
       <c r="K2">
-        <v>0.3129193531068495</v>
+        <v>0.764019255106092</v>
       </c>
       <c r="L2">
-        <v>0.2973886175894407</v>
+        <v>0.1616585808349171</v>
       </c>
       <c r="M2">
-        <v>0.2204887186071431</v>
+        <v>0.206242355816137</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>5.997299208462749</v>
+        <v>2.864683016176286</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6661859499192815</v>
+        <v>0.8231974102498896</v>
       </c>
       <c r="C3">
-        <v>0.1928607087091514</v>
+        <v>0.1340380350294375</v>
       </c>
       <c r="D3">
-        <v>0.1328966867213168</v>
+        <v>0.07070523132099993</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.268062712592823</v>
+        <v>1.070499867121555</v>
       </c>
       <c r="G3">
-        <v>0.002536200519294159</v>
+        <v>0.000844364634935868</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2662980842350073</v>
+        <v>0.108799114400723</v>
       </c>
       <c r="K3">
-        <v>0.2839817536946043</v>
+        <v>0.6645058876245287</v>
       </c>
       <c r="L3">
-        <v>0.2954499497816911</v>
+        <v>0.1492500614476029</v>
       </c>
       <c r="M3">
-        <v>0.2147544219842494</v>
+        <v>0.1821605829417834</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>6.02915790192975</v>
+        <v>2.861770824937025</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6470008946372729</v>
+        <v>0.7495696972108306</v>
       </c>
       <c r="C4">
-        <v>0.1927276880475262</v>
+        <v>0.1337870428326227</v>
       </c>
       <c r="D4">
-        <v>0.1321536003543429</v>
+        <v>0.06653021679152715</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>2.27476649796732</v>
+        <v>1.065479003474231</v>
       </c>
       <c r="G4">
-        <v>0.002537876629307612</v>
+        <v>0.0008468737851071062</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2673294873770597</v>
+        <v>0.1102704304962483</v>
       </c>
       <c r="K4">
-        <v>0.2662698578183011</v>
+        <v>0.6034940990703035</v>
       </c>
       <c r="L4">
-        <v>0.2943630801324915</v>
+        <v>0.141763793998777</v>
       </c>
       <c r="M4">
-        <v>0.2113186052211873</v>
+        <v>0.1674851244346378</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>6.051137240658676</v>
+        <v>2.864288944386232</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6392480901513125</v>
+        <v>0.7196409282603895</v>
       </c>
       <c r="C5">
-        <v>0.1926759165077065</v>
+        <v>0.1336913517006906</v>
       </c>
       <c r="D5">
-        <v>0.1318621667292135</v>
+        <v>0.06484097700119662</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2.277724616218279</v>
+        <v>1.063807442841892</v>
       </c>
       <c r="G5">
-        <v>0.002538581348532924</v>
+        <v>0.0008479174848590673</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2677661908497182</v>
+        <v>0.1108938584256194</v>
       </c>
       <c r="K5">
-        <v>0.2590666248657243</v>
+        <v>0.5786450330889892</v>
       </c>
       <c r="L5">
-        <v>0.2939462945423585</v>
+        <v>0.138744728776075</v>
       </c>
       <c r="M5">
-        <v>0.2099400122595156</v>
+        <v>0.1615300384570517</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.060702532090488</v>
+        <v>2.866361838465167</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.63796470289833</v>
+        <v>0.7146754795938932</v>
       </c>
       <c r="C6">
-        <v>0.192667467550077</v>
+        <v>0.1336758572192132</v>
       </c>
       <c r="D6">
-        <v>0.1318144634696381</v>
+        <v>0.06456119229918045</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>2.278229483404147</v>
+        <v>1.063552129446109</v>
       </c>
       <c r="G6">
-        <v>0.002538699678624444</v>
+        <v>0.0008480920804191141</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2678396963072309</v>
+        <v>0.1109988092849612</v>
       </c>
       <c r="K6">
-        <v>0.257871423076935</v>
+        <v>0.5745194448769979</v>
       </c>
       <c r="L6">
-        <v>0.2938786683478227</v>
+        <v>0.1382452788710182</v>
       </c>
       <c r="M6">
-        <v>0.2097124024519381</v>
+        <v>0.1605426548592135</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.062327610432845</v>
+        <v>2.866768238668925</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.646896072535128</v>
+        <v>0.749165778508825</v>
       </c>
       <c r="C7">
-        <v>0.1927269799519742</v>
+        <v>0.1337857257649233</v>
       </c>
       <c r="D7">
-        <v>0.132149623821654</v>
+        <v>0.0665073869464905</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>2.274805475675976</v>
+        <v>1.065454960747935</v>
       </c>
       <c r="G7">
-        <v>0.002537886045514188</v>
+        <v>0.0008468877744573256</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2673353104819682</v>
+        <v>0.1102787421134348</v>
       </c>
       <c r="K7">
-        <v>0.2661726531574118</v>
+        <v>0.6031589316101673</v>
       </c>
       <c r="L7">
-        <v>0.2943573533107866</v>
+        <v>0.1417229518619791</v>
       </c>
       <c r="M7">
-        <v>0.2112999256728223</v>
+        <v>0.1674047130190743</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>6.051263776923093</v>
+        <v>2.864312708382556</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6868795143652164</v>
+        <v>0.9020552677862099</v>
       </c>
       <c r="C8">
-        <v>0.1930109247348923</v>
+        <v>0.1343287052412769</v>
       </c>
       <c r="D8">
-        <v>0.1337283622343435</v>
+        <v>0.07520367778098347</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.261681855790592</v>
+        <v>1.077174211978509</v>
       </c>
       <c r="G8">
-        <v>0.002534485918384646</v>
+        <v>0.0008417586669725851</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2652534607612029</v>
+        <v>0.1073115745548101</v>
       </c>
       <c r="K8">
-        <v>0.3029303257124525</v>
+        <v>0.7296828905110146</v>
       </c>
       <c r="L8">
-        <v>0.2966987473922629</v>
+        <v>0.1573515472531639</v>
       </c>
       <c r="M8">
-        <v>0.218493959716902</v>
+        <v>0.1979143447260512</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>6.00778254058153</v>
+        <v>2.862762865896087</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7673035586720687</v>
+        <v>1.205203736791447</v>
       </c>
       <c r="C9">
-        <v>0.1936431910138907</v>
+        <v>0.1356106180769885</v>
       </c>
       <c r="D9">
-        <v>0.1371791485749014</v>
+        <v>0.09269426564596017</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.243067553785217</v>
+        <v>1.113005939884076</v>
       </c>
       <c r="G9">
-        <v>0.002528497812785841</v>
+        <v>0.0008323429739303971</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2616864059621502</v>
+        <v>0.1022723804978281</v>
       </c>
       <c r="K9">
-        <v>0.3754395301587294</v>
+        <v>0.9789448978036432</v>
       </c>
       <c r="L9">
-        <v>0.3021072933550855</v>
+        <v>0.1891338798434461</v>
       </c>
       <c r="M9">
-        <v>0.2332711337137887</v>
+        <v>0.2587498745090144</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>5.941680815107475</v>
+        <v>2.895611360770118</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8275962896017859</v>
+        <v>1.430843973917206</v>
       </c>
       <c r="C10">
-        <v>0.1941527373338445</v>
+        <v>0.1366936434663799</v>
       </c>
       <c r="D10">
-        <v>0.1399280286814388</v>
+        <v>0.1058615681401704</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.233720157346781</v>
+        <v>1.1480833304431</v>
       </c>
       <c r="G10">
-        <v>0.0025245085484639</v>
+        <v>0.0008257934916472138</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2593782885805815</v>
+        <v>0.09906853164224216</v>
       </c>
       <c r="K10">
-        <v>0.4289565102831716</v>
+        <v>1.163440502495604</v>
       </c>
       <c r="L10">
-        <v>0.3065744053036212</v>
+        <v>0.2132997701563397</v>
       </c>
       <c r="M10">
-        <v>0.2445304533722492</v>
+        <v>0.3042502664976396</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>5.904774293181305</v>
+        <v>2.944158938763053</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8552819982160997</v>
+        <v>1.534338780415396</v>
       </c>
       <c r="C11">
-        <v>0.1943941200324346</v>
+        <v>0.1372192047760095</v>
       </c>
       <c r="D11">
-        <v>0.1412243840161977</v>
+        <v>0.1119325393229929</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>2.230405114013891</v>
+        <v>1.166159031209972</v>
       </c>
       <c r="G11">
-        <v>0.002522781934863844</v>
+        <v>0.000822888447839822</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2583957981860969</v>
+        <v>0.09772475981263895</v>
       </c>
       <c r="K11">
-        <v>0.4533527750027417</v>
+        <v>1.247827208901043</v>
       </c>
       <c r="L11">
-        <v>0.3087128176907754</v>
+        <v>0.2244999427777543</v>
       </c>
       <c r="M11">
-        <v>0.2497388846022659</v>
+        <v>0.3251699039633422</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.890511038369226</v>
+        <v>2.972148002589108</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8658024516745684</v>
+        <v>1.573670314740184</v>
       </c>
       <c r="C12">
-        <v>0.1944868863180602</v>
+        <v>0.1374231511302426</v>
       </c>
       <c r="D12">
-        <v>0.1417218224920873</v>
+        <v>0.1142441610638656</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>2.229284320853182</v>
+        <v>1.173327931063099</v>
       </c>
       <c r="G12">
-        <v>0.002522140717982325</v>
+        <v>0.0008217986009575734</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2580334328288458</v>
+        <v>0.09723275283366206</v>
       </c>
       <c r="K12">
-        <v>0.4625979773294944</v>
+        <v>1.279862126733178</v>
       </c>
       <c r="L12">
-        <v>0.3095377722176949</v>
+        <v>0.2287734994882555</v>
       </c>
       <c r="M12">
-        <v>0.2517234990440897</v>
+        <v>0.3331274388347936</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>5.885472669250333</v>
+        <v>2.983649720412842</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8635350719565906</v>
+        <v>1.565193023497784</v>
       </c>
       <c r="C13">
-        <v>0.1944668472534445</v>
+        <v>0.1373790051146173</v>
       </c>
       <c r="D13">
-        <v>0.1416144004424922</v>
+        <v>0.113745731269546</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>2.229519723384129</v>
+        <v>1.171769246913115</v>
       </c>
       <c r="G13">
-        <v>0.00252227825547783</v>
+        <v>0.0008220328716384299</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2581110444063803</v>
+        <v>0.0973379575377642</v>
       </c>
       <c r="K13">
-        <v>0.4606065599146802</v>
+        <v>1.272959071750677</v>
       </c>
       <c r="L13">
-        <v>0.3093594297983486</v>
+        <v>0.2278516341303316</v>
       </c>
       <c r="M13">
-        <v>0.251295532323816</v>
+        <v>0.3314119874582175</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>5.886541641857008</v>
+        <v>2.981131567382192</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8561467949773487</v>
+        <v>1.537571689454552</v>
       </c>
       <c r="C14">
-        <v>0.1944017248222352</v>
+        <v>0.1372358836044967</v>
       </c>
       <c r="D14">
-        <v>0.1412651779152156</v>
+        <v>0.1121224577180726</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>2.230310210510112</v>
+        <v>1.166742211460999</v>
       </c>
       <c r="G14">
-        <v>0.002522728929080321</v>
+        <v>0.000822798583200583</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2583657922433282</v>
+        <v>0.09768394139258518</v>
       </c>
       <c r="K14">
-        <v>0.4541132485234982</v>
+        <v>1.250461066387089</v>
       </c>
       <c r="L14">
-        <v>0.3087803834650771</v>
+        <v>0.2248508685195105</v>
       </c>
       <c r="M14">
-        <v>0.2499019144575385</v>
+        <v>0.3258238358804348</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.890089259498694</v>
+        <v>2.973075839447347</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8516259927897352</v>
+        <v>1.52067165436975</v>
       </c>
       <c r="C15">
-        <v>0.1943620119989475</v>
+        <v>0.1371488654829349</v>
       </c>
       <c r="D15">
-        <v>0.141052118543314</v>
+        <v>0.1111298379611441</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>2.230811921577555</v>
+        <v>1.163705801291087</v>
       </c>
       <c r="G15">
-        <v>0.002523006620862532</v>
+        <v>0.0008232689217598232</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2585230929472999</v>
+        <v>0.09789807641977077</v>
       </c>
       <c r="K15">
-        <v>0.4501367876376889</v>
+        <v>1.236691161035736</v>
       </c>
       <c r="L15">
-        <v>0.3084276752764055</v>
+        <v>0.2230170966763865</v>
       </c>
       <c r="M15">
-        <v>0.2490498800780756</v>
+        <v>0.3224057043019499</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.892309515887064</v>
+        <v>2.968260714296463</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8257921036111782</v>
+        <v>1.424098963805051</v>
       </c>
       <c r="C16">
-        <v>0.1941371537221315</v>
+        <v>0.1366599751349042</v>
       </c>
       <c r="D16">
-        <v>0.1398442268159243</v>
+        <v>0.1054665330227635</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.233955642211328</v>
+        <v>1.146946300409056</v>
       </c>
       <c r="G16">
-        <v>0.002524623154993526</v>
+        <v>0.0008259848003321497</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2594438527302927</v>
+        <v>0.09915868004974016</v>
       </c>
       <c r="K16">
-        <v>0.427363144228849</v>
+        <v>1.157935998454434</v>
       </c>
       <c r="L16">
-        <v>0.3064367853647525</v>
+        <v>0.2125721899969903</v>
       </c>
       <c r="M16">
-        <v>0.244191798505085</v>
+        <v>0.3028878990759907</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>5.905757221806596</v>
+        <v>2.942453116688426</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8100095224981771</v>
+        <v>1.365084894794933</v>
       </c>
       <c r="C17">
-        <v>0.1940016526187378</v>
+        <v>0.1363686155807784</v>
       </c>
       <c r="D17">
-        <v>0.1391149315210072</v>
+        <v>0.1020137511823265</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.236124081129688</v>
+        <v>1.137220921846463</v>
       </c>
       <c r="G17">
-        <v>0.002525637375330617</v>
+        <v>0.0008276696268506183</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2600259777912193</v>
+        <v>0.09996148269991068</v>
       </c>
       <c r="K17">
-        <v>0.4134049997290674</v>
+        <v>1.109749073330306</v>
       </c>
       <c r="L17">
-        <v>0.305242592593217</v>
+        <v>0.2062193388076992</v>
       </c>
       <c r="M17">
-        <v>0.2412335765395852</v>
+        <v>0.2909737240863919</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>5.914653579016374</v>
+        <v>2.928170407305231</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8009561455891117</v>
+        <v>1.331220405687048</v>
       </c>
       <c r="C18">
-        <v>0.1939246194989934</v>
+        <v>0.1362041158630589</v>
       </c>
       <c r="D18">
-        <v>0.1386997818051299</v>
+        <v>0.1000353711463333</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.237459530301663</v>
+        <v>1.131825341269092</v>
       </c>
       <c r="G18">
-        <v>0.002526229026149446</v>
+        <v>0.0008286457216886257</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2603671539073495</v>
+        <v>0.1004339011204856</v>
       </c>
       <c r="K18">
-        <v>0.4053814849398236</v>
+        <v>1.082075538459947</v>
       </c>
       <c r="L18">
-        <v>0.3045657360971177</v>
+        <v>0.2025846680745644</v>
       </c>
       <c r="M18">
-        <v>0.2395402369389146</v>
+        <v>0.2841415842547264</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>5.920008282394207</v>
+        <v>2.920507698209121</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7978950293199603</v>
+        <v>1.319767482816559</v>
       </c>
       <c r="C19">
-        <v>0.1938986931669717</v>
+        <v>0.1361489427698501</v>
       </c>
       <c r="D19">
-        <v>0.1385599633242833</v>
+        <v>0.09936679577757701</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.237926849010393</v>
+        <v>1.130031963336975</v>
       </c>
       <c r="G19">
-        <v>0.002526430775939874</v>
+        <v>0.0008289774311766344</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2604837621048333</v>
+        <v>0.1005956712252782</v>
       </c>
       <c r="K19">
-        <v>0.4026657068977499</v>
+        <v>1.072712625299175</v>
       </c>
       <c r="L19">
-        <v>0.3043382867234499</v>
+        <v>0.2013572751645185</v>
       </c>
       <c r="M19">
-        <v>0.2389683057002614</v>
+        <v>0.2818317590093073</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>5.92186213896494</v>
+        <v>2.918006519961722</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8116870902244955</v>
+        <v>1.371358756419909</v>
       </c>
       <c r="C20">
-        <v>0.1940159835672688</v>
+        <v>0.1363993108866879</v>
       </c>
       <c r="D20">
-        <v>0.1391921194125558</v>
+        <v>0.1023805152307773</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.235884118188892</v>
+        <v>1.138235556132173</v>
       </c>
       <c r="G20">
-        <v>0.002525528551474577</v>
+        <v>0.0008274895501250049</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2599633522122922</v>
+        <v>0.09987491538936411</v>
       </c>
       <c r="K20">
-        <v>0.4148903705576856</v>
+        <v>1.114874179919155</v>
       </c>
       <c r="L20">
-        <v>0.305368681027943</v>
+        <v>0.206893593209017</v>
       </c>
       <c r="M20">
-        <v>0.24154764173052</v>
+        <v>0.2922398511595645</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>5.913681942688015</v>
+        <v>2.929633284361728</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8583159263011169</v>
+        <v>1.545680786633824</v>
       </c>
       <c r="C21">
-        <v>0.1944208161016618</v>
+        <v>0.1372777864513566</v>
       </c>
       <c r="D21">
-        <v>0.1413675761069015</v>
+        <v>0.1125989000390462</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>2.230074375581893</v>
+        <v>1.168209818954267</v>
       </c>
       <c r="G21">
-        <v>0.002522596213477824</v>
+        <v>0.0008225734013178054</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2582907040215119</v>
+        <v>0.09758185605440772</v>
       </c>
       <c r="K21">
-        <v>0.4560203089867798</v>
+        <v>1.257067005347835</v>
       </c>
       <c r="L21">
-        <v>0.3089500521255815</v>
+        <v>0.2257313686289848</v>
       </c>
       <c r="M21">
-        <v>0.2503109212934973</v>
+        <v>0.3274642094901168</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>5.889037394487644</v>
+        <v>2.975417050980184</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.8890028744148708</v>
+        <v>1.660437413052961</v>
       </c>
       <c r="C22">
-        <v>0.1946933155214978</v>
+        <v>0.1378807489917691</v>
       </c>
       <c r="D22">
-        <v>0.1428274367735014</v>
+        <v>0.1193516157067762</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>2.227061484965176</v>
+        <v>1.189698345532008</v>
       </c>
       <c r="G22">
-        <v>0.002520753259559996</v>
+        <v>0.0008194198085859616</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2572539584258386</v>
+        <v>0.09618168376444558</v>
       </c>
       <c r="K22">
-        <v>0.4829408996277209</v>
+        <v>1.350468658876878</v>
       </c>
       <c r="L22">
-        <v>0.3113791430375841</v>
+        <v>0.238232482092485</v>
       </c>
       <c r="M22">
-        <v>0.2561098259542689</v>
+        <v>0.3506955938940806</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>5.875045351783911</v>
+        <v>3.01062971785214</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8726054636578056</v>
+        <v>1.599107644097302</v>
       </c>
       <c r="C23">
-        <v>0.1945471591070174</v>
+        <v>0.1375562283096201</v>
       </c>
       <c r="D23">
-        <v>0.1420448176999969</v>
+        <v>0.1157404023361579</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>2.228597846732001</v>
+        <v>1.178049048424654</v>
       </c>
       <c r="G23">
-        <v>0.002521730172470172</v>
+        <v>0.0008210976655258759</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2578021331292959</v>
+        <v>0.0969197962769428</v>
       </c>
       <c r="K23">
-        <v>0.468569392089762</v>
+        <v>1.300570657068363</v>
       </c>
       <c r="L23">
-        <v>0.3100746311653211</v>
+        <v>0.2315421777800992</v>
       </c>
       <c r="M23">
-        <v>0.2530083384575335</v>
+        <v>0.338275968094166</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>5.882319807377968</v>
+        <v>2.991333215317127</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8109285987633541</v>
+        <v>1.368522147188088</v>
       </c>
       <c r="C24">
-        <v>0.1940095018386288</v>
+        <v>0.1363854241884255</v>
       </c>
       <c r="D24">
-        <v>0.1391572098925593</v>
+        <v>0.1022146805040478</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.235992328857833</v>
+        <v>1.137776231952856</v>
       </c>
       <c r="G24">
-        <v>0.002525577724123328</v>
+        <v>0.0008275709394856001</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2599916449732724</v>
+        <v>0.09991401863045368</v>
       </c>
       <c r="K24">
-        <v>0.4142188306065862</v>
+        <v>1.112557027514299</v>
       </c>
       <c r="L24">
-        <v>0.3053116462221794</v>
+        <v>0.2065887079513402</v>
       </c>
       <c r="M24">
-        <v>0.2414056298541709</v>
+        <v>0.2916673809612007</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>5.914120471635641</v>
+        <v>2.928970212868705</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7453333384009397</v>
+        <v>1.122749340883587</v>
       </c>
       <c r="C25">
-        <v>0.1934641704523727</v>
+        <v>0.1352397197693591</v>
       </c>
       <c r="D25">
-        <v>0.1362079124537701</v>
+        <v>0.08791077238377909</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.247342166294665</v>
+        <v>1.101845459846473</v>
       </c>
       <c r="G25">
-        <v>0.002530045427112299</v>
+        <v>0.0008348237359831781</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2625963760524979</v>
+        <v>0.1035498560572687</v>
       </c>
       <c r="K25">
-        <v>0.3557797766669069</v>
+        <v>0.9113242179844576</v>
       </c>
       <c r="L25">
-        <v>0.300557147069128</v>
+        <v>0.1804021361177206</v>
       </c>
       <c r="M25">
-        <v>0.2292024152742975</v>
+        <v>0.2421655390013235</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>5.957513942933616</v>
+        <v>2.88263082895142</v>
       </c>
     </row>
   </sheetData>
